--- a/典型突发型心脏病波形特征.xlsx
+++ b/典型突发型心脏病波形特征.xlsx
@@ -4,84 +4,374 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="常见异常心脏疾病分类以及特征" sheetId="1" r:id="rId1"/>
+    <sheet name="异常心电统特征段计标准" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>特点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>休克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST段抬高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST-T改变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窦性心动过速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心力衰竭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.高血压型：左心室肥厚，QRS波群电压改变（增高？），ST-T改变，左前分支传导阻滞，房早 2.冠心病心衰：ST-T变化，伴随心肌缺血，房颤，室早，房早，房室传导阻滞，束支传导阻滞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心电停搏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速性心律失常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓慢性心律失常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见心脏异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">l. 心室扑动、心室颤动，2. 室性心动过速（--特发性室速（IVT），--长QT综合征与尖端扭转型室速），3. 阵发性室上性心动过速，4. 快速心房扑动、心房颤动，5. --房颤伴预激综合征 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">l. 严重窦性心动过缓，2. 窦性静止/窦房阻滞，3. II或III度房室传导阻滞
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.窦性心动过速 2.严重者伴随ST-T改变 3.偶尔会伴随窦速伴室性期前缩（室早） 4.后期会往心肌梗死趋势发展，有相似心电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易发展成急性心肌梗死 1.急性下壁心内膜下心肌损伤II导联V2导联ST段下降常态在0.20mv左右 2.一过性T波改变，急性心内膜下心肌缺血：缺血部位导联上T波呈现高尖基底部变窄，Q-T间期缩短；急性心外膜下心肌缺血：缺血区导联T波倒置；急性穿璧性心肌缺血：缺血部位导联T波倒置进一步加深，Q-T间期延长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窦性停搏：较长的P-P间歇，此间隙不是基本窦性P-P周期的倍数，间距互不相等，也无最大公约数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不稳定型心绞痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. QRS波群改变R波降低，上升支缓慢，室璧激动时间延长 2. QRS振幅增加，QRS波群时限延长至100至120ms,ST段上斜型抬高，T波高大 3. 损伤区导联ST段急剧抬高0.20mv以上，程度没有心肌梗死严重，不会出现坏死型Q波，UP患者ST抬高的现象比较少见 4. ST段下降，一过性缺血型ST段下降最常见 4. T波在缺血区的导联上迅速增高变尖 5. UP发作有20%出现T波倒置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异型心绞痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. ST段损伤型抬高，部分患者对应导联ST段下降 2. T波增高变尖 3. 出现急性损伤阻滞图形，表现为R波振幅增高，QRS时间延长至0.10-0.12s 4. 心脏电交替，有QRS、ST、T或者Q-T间期电交替</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>急性心肌梗塞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.缺血性T波改变：T波对称，波形变窄，波形高耸（可能高于QRS波） 2.损伤性ST段位移：ST段抬高与T波融合成单向曲线  3.坏死型Q波，Q波深度高于R波1/4宽度增加大于0.04s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>波对称，波形变窄，波形高耸（可能高于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>QRS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>波）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>段</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>段抬高与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>波融合成单向曲线</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>波</t>
+    </r>
+  </si>
+  <si>
     <t>休克</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.窦性心动过速 2.严重者伴随ST-T改变 3.偶尔会伴随窦速伴室性期前缩（室早） 4.后期会往心肌梗死趋势发展，有相似心电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST段抬高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST-T改变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窦性心动过速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.缺血性T波改变：T波对称，波形变窄，波形高耸（可能高于QRS波） 2.损伤性ST段位移：ST段抬高与T波融合成单向曲线  3.坏死型Q波，Q波深度高于R波1/4宽度增加大于0.04s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心力衰竭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.高血压型：左心室肥厚，QRS波群电压改变（增高？），ST-T改变，左前分支传导阻滞，房早 2.冠心病心衰：ST-T变化，伴随心肌缺血，房颤，室早，房早，房室传导阻滞，束支传导阻滞</t>
+    <t>P波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P-P间期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q-T间期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>随着心动频率加快而缩短</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窦性P波，P波高度会有增加，可能变尖；P波的频率&gt;100次/min，一般在120到150次/min，偶尔会出现P波重叠于T波中不易区分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>段呈上斜型下降</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;=0.10mv</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QRS波群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.12-0.14s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P-P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>间期基本均匀，会出现窦性心搏时间间隔等于心律周期的的两倍</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>心电停搏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快速性心律失常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缓慢性心律失常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">l 严重窦性心动过缓，2 窦性静止/窦房阻滞，3 II或III度房室传导阻滞
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>急性心肌缺血（无症状心肌缺血）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>易发展成急性心肌梗死 1.急性下壁心内膜下心肌损伤II导联V2导联ST段下降常态在0.20mv左右 2.一过性T波改变，急性心内膜下心肌缺血：缺血部位导联上T波呈现高尖基底部变窄，Q-T间期缩短；急性心外膜下心肌缺血：缺血区导联T波倒置；急性穿璧性心肌缺血：缺血部位导联T波倒置进一步加深，Q-T间期延长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常见心脏异常</t>
+    <t>无症状心肌缺血</t>
+  </si>
+  <si>
+    <r>
+      <t>Q-T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>间期缩短</t>
+    </r>
+  </si>
+  <si>
+    <t>缺血部位导联，T波呈现高尖基底部变窄，心外膜出血会出现倒置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心电停搏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>较长的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>P-P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>间隙，间距互不相等，不是基本窦性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P-P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>周期的倍数，也无最大公约数</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -89,20 +379,492 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. QRS波群改变R波降低，上升支缓慢，室璧激动时间延长 2. QRS振幅增加，QRS波群时限延长至100至120ms,ST段上斜型抬高，T波高大 3. 损伤区导联ST段急剧抬高0.20mv以上，程度没有心肌梗死严重，不会出现坏死型Q波，UP患者ST抬高的现象比较少见 4. ST段下降，一过性缺血型ST段下降最常见 4. T波在缺血区的导联上迅速增高变尖 5. UP发作有20%出现T波倒置</t>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坏死型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>波，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>波深度高于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>波</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1/4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宽度增加大于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.04s</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R波降低，QRS振幅增加，时延至100到120ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UP患者ST抬高的现象比较少见：上斜型抬高，损伤期导联急剧抬高0.20mv以上；一过性缺血型ST段下降比较常见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T波在缺血区的导联上迅速增高变尖，UP发作有20%出现T波倒置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>变异型心绞痛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. ST段损伤型抬高，部分患者对应导联ST段下降 2. T波增高变尖 3. 出现急性损伤阻滞图形，表现为R波振幅增高，QRS时间延长至0.10-0.12s 4. 心脏电交替，有QRS、ST、T或者Q-T间期电交替</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">l 心室扑动、心室颤动，2 室性心动过速（--特发性室速（IVT），--长QT综合征与尖端扭转型室速），3 阵发性室上性心动过速，4 快速心房扑动、心房颤动，5 --房颤伴预激综合征 
-</t>
+  </si>
+  <si>
+    <r>
+      <t>ST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>段损伤型抬高，部分患者对应导联</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>段下降</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>波增高变尖</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>波振幅增高，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>QRS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时间延长至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.10-0.12s</t>
+    </r>
+  </si>
+  <si>
+    <t>心室扑动</t>
+  </si>
+  <si>
+    <r>
+      <t>各导联无</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>波</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>QRS-T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>波群无法分辨，代之以正弦型的大扑动波，频率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200~250</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/min</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心室颤动</t>
+  </si>
+  <si>
+    <r>
+      <t>QRS-T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>波群完全消失，代之以大小不等、形状不同、极不匀齐的低小波（颤动波）；频率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200~500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/min</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>室性心动过速</t>
+  </si>
+  <si>
+    <t>因心率快不易发现P’波,统称为PSVT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵发性室上性心动过速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>连续</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>次或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>次以上的提前的宽大畸形</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>QRS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>波</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>心室率常在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>140-200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>节律略有不齐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突然发生的连续、快速的异位QRS波,形态正常，节律规则，频率&gt;140bpm,可达250bpm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -110,7 +872,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +885,40 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -146,7 +942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -155,6 +951,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -463,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -475,27 +1283,27 @@
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -516,67 +1324,253 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
+    <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="7" width="26.875" customWidth="1"/>
+    <col min="8" max="8" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
